--- a/Data/diabetes.xlsx
+++ b/Data/diabetes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F41D9F-682B-4F00-87D6-7B0A7D2FACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B2D0FE-924D-400D-9272-46DEA0295A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="11709" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="63">
   <si>
     <t>State</t>
   </si>
@@ -74,13 +74,7 @@
     <t>Hawaii</t>
   </si>
   <si>
-    <t>ldaho</t>
-  </si>
-  <si>
     <t>Indiana</t>
-  </si>
-  <si>
-    <t>lowa</t>
   </si>
   <si>
     <t>Kansas</t>
@@ -200,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>illinois</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -214,9 +204,6 @@
   </si>
   <si>
     <t>2019</t>
-  </si>
-  <si>
-    <t>illinois</t>
   </si>
   <si>
     <t>2021</t>
@@ -230,6 +217,18 @@
   </si>
   <si>
     <t>source:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idaho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illinois</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iowa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,6 +264,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.45" x14ac:dyDescent="0.3"/>
@@ -626,16 +626,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5">
         <v>0.14499999999999999</v>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5">
         <v>8.7999999999999995E-2</v>
@@ -665,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5">
         <v>0.108</v>
@@ -676,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5">
         <v>0.13900000000000001</v>
@@ -687,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5">
         <v>0.104</v>
@@ -698,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5">
         <v>7.0000000000000007E-2</v>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5">
         <v>9.7000000000000003E-2</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5">
         <v>0.11899999999999999</v>
@@ -731,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5">
         <v>8.4000000000000005E-2</v>
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5">
         <v>0.126</v>
@@ -753,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5">
         <v>0.126</v>
@@ -764,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5">
         <v>0.115</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5">
         <v>0.10199999999999999</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5">
         <v>0.1</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5">
         <v>0.125</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5">
         <v>0.1</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5">
         <v>0.11600000000000001</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5">
         <v>0.13700000000000001</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5">
         <v>0.14099999999999999</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5">
         <v>0.106</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5">
         <v>0.12</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5">
         <v>8.5999999999999993E-2</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="5">
         <v>0.11700000000000001</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="5">
         <v>8.8999999999999996E-2</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="5">
         <v>0.14299999999999999</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5">
         <v>0.115</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5">
         <v>9.2999999999999999E-2</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5">
         <v>9.7000000000000003E-2</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="5">
         <v>0.107</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" s="5">
         <v>0.10299999999999999</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="32" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C32" s="5">
         <v>0.108</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="33" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="5">
         <v>0.125</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5">
         <v>0.11</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C35" s="5">
         <v>0.125</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" s="5">
         <v>9.4E-2</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C37" s="5">
         <v>0.122</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="38" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C38" s="5">
         <v>0.125</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C39" s="5">
         <v>0.11</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5">
         <v>0.113</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C41" s="5">
         <v>0.109</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C42" s="5">
         <v>0.13300000000000001</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C43" s="5">
         <v>9.2999999999999999E-2</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C44" s="5">
         <v>0.13800000000000001</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="45" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C45" s="5">
         <v>0.126</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="46" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C46" s="5">
         <v>8.4000000000000005E-2</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="47" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C47" s="5">
         <v>9.1999999999999998E-2</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C48" s="5">
         <v>0.105</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C49" s="5">
         <v>9.9000000000000005E-2</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C50" s="5">
         <v>0.16200000000000001</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="51" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C51" s="5">
         <v>8.6999999999999994E-2</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C52" s="5">
         <v>8.6999999999999994E-2</v>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C53" s="9">
         <v>0.14000000000000001</v>
@@ -1215,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C54" s="9">
         <v>7.2999999999999995E-2</v>
@@ -1226,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C55" s="9">
         <v>0.109</v>
@@ -1237,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C56" s="9">
         <v>0.13600000000000001</v>
@@ -1248,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C57" s="9">
         <v>0.10100000000000001</v>
@@ -1259,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C58" s="9">
         <v>7.0000000000000007E-2</v>
@@ -1270,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C59" s="9">
         <v>9.6000000000000002E-2</v>
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C60" s="9">
         <v>0.128</v>
@@ -1292,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C61" s="9">
         <v>8.6999999999999994E-2</v>
@@ -1303,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C62" s="9">
         <v>0.11700000000000001</v>
@@ -1314,7 +1314,7 @@
         <v>11</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C63" s="9">
         <v>0.12</v>
@@ -1325,7 +1325,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C64" s="9">
         <v>0.105</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C65" s="9">
         <v>0.10299999999999999</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="66" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C66" s="9">
         <v>0.113</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C67" s="9">
         <v>0.124</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C68" s="9">
         <v>0.10299999999999999</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C69" s="9">
         <v>0.108</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C70" s="9">
         <v>0.13300000000000001</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C71" s="9">
         <v>0.126</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="72" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C72" s="9">
         <v>0.106</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="73" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C73" s="9">
         <v>0.11</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C74" s="9">
         <v>8.4000000000000005E-2</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C75" s="9">
         <v>0.111</v>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C76" s="9">
         <v>8.7999999999999995E-2</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C77" s="9">
         <v>0.14799999999999999</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C78" s="9">
         <v>0.10299999999999999</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C79" s="9">
         <v>7.5999999999999998E-2</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C80" s="9">
         <v>0.10199999999999999</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="81" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C81" s="9">
         <v>0.109</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="82" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C82" s="9">
         <v>9.1999999999999998E-2</v>
@@ -1531,21 +1531,21 @@
     </row>
     <row r="83" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C84" s="9">
         <v>0.123</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="85" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C85" s="9">
         <v>0.105</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="86" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C86" s="9">
         <v>0.11799999999999999</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="87" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C87" s="9">
         <v>8.8999999999999996E-2</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="88" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C88" s="9">
         <v>0.12</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="89" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C89" s="9">
         <v>0.122</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="90" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C90" s="9">
         <v>8.5999999999999993E-2</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="91" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C91" s="9">
         <v>0.108</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="92" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C92" s="9">
         <v>0.104</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="93" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C93" s="9">
         <v>0.13400000000000001</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="94" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C94" s="9">
         <v>0.106</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="95" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C95" s="9">
         <v>0.13800000000000001</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C96" s="9">
         <v>0.122</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="97" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C97" s="9">
         <v>0.08</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C98" s="9">
         <v>8.6999999999999994E-2</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C99" s="9">
         <v>0.109</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="100" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C100" s="9">
         <v>9.4E-2</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C101" s="9">
         <v>0.157</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C102" s="9">
         <v>8.6999999999999994E-2</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C103" s="9">
         <v>7.8E-2</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B116" s="3">
         <v>2020</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B117" s="3">
         <v>2020</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B118" s="3">
         <v>2020</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B119" s="3">
         <v>2020</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B120" s="3">
         <v>2020</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B121" s="3">
         <v>2020</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B122" s="3">
         <v>2020</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B123" s="3">
         <v>2020</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B124" s="3">
         <v>2020</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B125" s="3">
         <v>2020</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B126" s="3">
         <v>2020</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B127" s="3">
         <v>2020</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B128" s="3">
         <v>2020</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B129" s="3">
         <v>2020</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B130" s="3">
         <v>2020</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B131" s="3">
         <v>2020</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B132" s="3">
         <v>2020</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B133" s="3">
         <v>2020</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B134" s="3">
         <v>2020</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B135" s="3">
         <v>2020</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B136" s="3">
         <v>2020</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B137" s="3">
         <v>2020</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B138" s="3">
         <v>2020</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B139" s="3">
         <v>2020</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B140" s="3">
         <v>2020</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B141" s="3">
         <v>2020</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B142" s="3">
         <v>2020</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B143" s="3">
         <v>2020</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B144" s="3">
         <v>2020</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B145" s="3">
         <v>2020</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B146" s="3">
         <v>2020</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B147" s="3">
         <v>2020</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B148" s="3">
         <v>2020</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B149" s="3">
         <v>2020</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B150" s="3">
         <v>2020</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B151" s="3">
         <v>2020</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B152" s="3">
         <v>2020</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B153" s="3">
         <v>2020</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B154" s="3">
         <v>2020</v>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C155" s="9">
         <v>0.17399999999999999</v>
@@ -2337,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C156" s="9">
         <v>9.1999999999999998E-2</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C157" s="9">
         <v>0.11899999999999999</v>
@@ -2359,7 +2359,7 @@
         <v>4</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C158" s="9">
         <v>0.159</v>
@@ -2370,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C159" s="9">
         <v>0.121</v>
@@ -2381,7 +2381,7 @@
         <v>6</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C160" s="9">
         <v>8.5000000000000006E-2</v>
@@ -2392,7 +2392,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C161" s="9">
         <v>0.11799999999999999</v>
@@ -2403,7 +2403,7 @@
         <v>8</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C162" s="9">
         <v>0.13200000000000001</v>
@@ -2414,7 +2414,7 @@
         <v>9</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C163" s="9">
         <v>9.5000000000000001E-2</v>
@@ -2425,10 +2425,10 @@
         <v>10</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
@@ -2436,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C165" s="9">
         <v>0.14399999999999999</v>
@@ -2447,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C166" s="9">
         <v>0.104</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C167" s="9">
         <v>0.112</v>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C168" s="9">
         <v>0.11600000000000001</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C169" s="9">
         <v>0.14000000000000001</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="3" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C170" s="9">
         <v>0.112</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C171" s="9">
         <v>0.124</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C172" s="9">
         <v>0.14599999999999999</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C173" s="9">
         <v>0.155</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C174" s="9">
         <v>0.11700000000000001</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C175" s="9">
         <v>0.128</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C176" s="9">
         <v>0.10100000000000001</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C177" s="9">
         <v>0.122</v>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C178" s="9">
         <v>0.104</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C179" s="9">
         <v>0.17199999999999999</v>
@@ -2598,10 +2598,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C180" s="9">
         <v>0.127</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C181" s="9">
         <v>9.9000000000000005E-2</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C182" s="9">
         <v>0.111</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C183" s="9">
         <v>0.123</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C184" s="9">
         <v>0.106</v>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C185" s="9">
         <v>0.114</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C186" s="9">
         <v>0.13800000000000001</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C187" s="9">
         <v>0.124</v>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C188" s="9">
         <v>0.13800000000000001</v>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C189" s="9">
         <v>0.113</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C190" s="9">
         <v>0.13900000000000001</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C191" s="9">
         <v>0.14799999999999999</v>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C192" s="9">
         <v>0.106</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C193" s="9">
         <v>0.11899999999999999</v>
@@ -2752,10 +2752,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C194" s="9">
         <v>0.115</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C195" s="9">
         <v>0.16</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C196" s="9">
         <v>0.127</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C197" s="9">
         <v>0.151</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C198" s="9">
         <v>0.128</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C199" s="9">
         <v>9.6000000000000002E-2</v>
@@ -2818,10 +2818,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C200" s="9">
         <v>9.6000000000000002E-2</v>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C201" s="9">
         <v>0.122</v>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C202" s="9">
         <v>9.9000000000000005E-2</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C203" s="9">
         <v>0.16900000000000001</v>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C204" s="9">
         <v>9.9000000000000005E-2</v>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C205" s="9">
         <v>9.9000000000000005E-2</v>
